--- a/Documentation/Moods Timeline.xlsx
+++ b/Documentation/Moods Timeline.xlsx
@@ -1072,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="3">
-        <v>42857</v>
+        <v>42827</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
